--- a/Curso MySQL.xlsx
+++ b/Curso MySQL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moc\Desktop\MySQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moc\Desktop\proway-curso-mysql-2023-03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37DD5E3-4BF7-458B-B552-E88705249B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770CFC5C-84D0-49B9-AEF2-BDF2E24C5159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{9C3A9D23-8773-4E01-B621-779C1A898D3A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{9C3A9D23-8773-4E01-B621-779C1A898D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Cursos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>2023-03-12</t>
   </si>
@@ -234,13 +233,22 @@
   </si>
   <si>
     <t>Zaqueu</t>
+  </si>
+  <si>
+    <t>-- Consultar o nome do aluno, codigo da turma e nome do curso</t>
+  </si>
+  <si>
+    <t>-- Consultar o nome do aluno, nome do professor</t>
+  </si>
+  <si>
+    <t>-- Consultar o nome do aluno, nome do curso, data de inicio e término ordenados por data de inicio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +269,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -344,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -353,6 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,7 +383,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,7 +703,7 @@
   <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="153" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,11 +714,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -820,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801C411B-7A20-44F3-B7BB-7FD5F80F4A60}">
   <dimension ref="C3:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E10"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="189" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,10 +849,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
@@ -896,7 +913,7 @@
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="8">
         <v>35273</v>
       </c>
     </row>
@@ -921,10 +938,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6321982A-9276-466E-ADDF-2840A263223C}">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="165" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -936,11 +953,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -963,6 +980,12 @@
       <c r="D4" s="2">
         <v>1032</v>
       </c>
+      <c r="F4" s="2">
+        <v>1032</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
@@ -974,6 +997,12 @@
       <c r="D5" s="2">
         <v>1033</v>
       </c>
+      <c r="F5" s="2">
+        <v>1033</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
@@ -985,6 +1014,12 @@
       <c r="D6" s="2">
         <v>1034</v>
       </c>
+      <c r="F6" s="2">
+        <v>1034</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
@@ -996,6 +1031,12 @@
       <c r="D7" s="2">
         <v>1035</v>
       </c>
+      <c r="F7" s="2">
+        <v>1035</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
@@ -1007,6 +1048,12 @@
       <c r="D8" s="2">
         <v>1036</v>
       </c>
+      <c r="F8" s="2">
+        <v>1036</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
@@ -1018,6 +1065,12 @@
       <c r="D9" s="2">
         <v>1033</v>
       </c>
+      <c r="F9" s="2">
+        <v>1037</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
@@ -1107,6 +1160,21 @@
       </c>
       <c r="D17" s="2">
         <v>1032</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B20" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B21" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B22" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1114,6 +1182,7 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1122,7 +1191,7 @@
   <dimension ref="B2:H13"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B4" sqref="B4:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1137,13 +1206,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
@@ -1328,11 +1397,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
